--- a/data/SampleRequirmentsV.0.1/Elementplan_SampleRequirmentsV.0.1_raw_data.xlsx
+++ b/data/SampleRequirmentsV.0.1/Elementplan_SampleRequirmentsV.0.1_raw_data.xlsx
@@ -289,11 +289,12 @@
     <t>Unique floor designation</t>
   </si>
   <si>
-    <t>Recommendation: 
-Room Identifier: Persistent Unique Numerical Designation
-Definition: A distinct, enduring numerical code assigned to each room for unambiguous identification within a building or complex. E.g., #007
+    <t>Recommendation: &lt;br&gt;
+- Room Identifier: Persistent Unique Numerical Designation &lt;br&gt;
+- Definition: A distinct, enduring numerical code assigned to each room for unambiguous identification within a building or complex. E.g., #007 &lt;br&gt;
+&lt;br&gt;
 Key Principles for Effective Data Management:
-1. Persistence: Maintain the same identifier as long as the room's core attributes remain unchanged:
+1. Persistence: Maintain the same identifier as long as the room's core attributes remain unchanged: &lt;br&gt;
    - Position (not relocated to a different part of the building)
    - General size (minor adjustments are acceptable)
    - Primary function (e.g., remains an office or meeting room)
@@ -365,9 +366,10 @@
     <t>Eindeutige Geschossbezeichnung</t>
   </si>
   <si>
-    <t>Empfehlung&gt;
-Raumkennung: Persistente eindeutige numerische Bezeichnung
-Definition: Ein eindeutiger, dauerhafter numerischer Code, der jedem Raum zur unmissverständlichen Identifizierung innerhalb eines Gebäudes oder Komplexes zugewiesen wird. Z.B. #007
+    <t>Empfehlung:\n
+- Raumkennung: Persistente eindeutige numerische Bezeichnung \n
+- Definition: Ein eindeutiger, dauerhafter numerischer Code, der jedem Raum zur unmissverständlichen Identifizierung innerhalb eines Gebäudes oder Komplexes zugewiesen wird. Z.B. #007 \n
+\n
 Schlüsselprinzipien für effektives Datenmanagement:
 1. Beständigkeit: Behalten Sie dieselbe Kennung bei, solange die Kernattribute des Raums unverändert bleiben:
    - Position (nicht in einen anderen Teil des Gebäudes verlegt)
@@ -601,12 +603,13 @@
     <t>IfcWindow</t>
   </si>
   <si>
-    <t>IfcProject is the main container for a digital building project. It stores essential project information like:
-- Project name and description
-- Measurement units
-- Location details
-- Project stages
-- Basic project-wide settings
+    <t>IfcProject is the main container for a digital building project. It stores essential project information like: &lt;br&gt;
+- Project name and description&lt;br&gt;
+- Measurement units&lt;br&gt;
+- Location details&lt;br&gt;
+- Project stages&lt;br&gt;
+- Basic project-wide settings&lt;br&gt;
+&lt;br&gt;
 It acts as the central point for organizing all building information, helping team members access and understand the project easily.</t>
   </si>
   <si>
@@ -638,12 +641,13 @@
 - Attics, canopies, and cantilevered slabs are measured over.</t>
   </si>
   <si>
-    <t>IfcProject ist der Hauptcontainer für ein digitales Bauprojekt. Es speichert wesentliche Projektinformationen wie:
-- Projektname und -beschreibung
-- Masseinheiten
-- Standortdetails
-- Projektphasen
-- Grundlegende projektweite  Einstellungen
+    <t>IfcProject ist der Hauptcontainer für ein digitales Bauprojekt. Es speichert wesentliche Projektinformationen wie:&lt;br&gt;
+- Projektname und -beschreibung&lt;br&gt;
+- Masseinheiten&lt;br&gt;
+- Standortdetails&lt;br&gt;
+- Projektphasen&lt;br&gt;
+- Grundlegende projektweite  Einstellungen&lt;br&gt;
+&lt;br&gt;
 Es dient als zentraler Punkt für die Organisation aller Bauinformationen und hilft Teammitgliedern, das Projekt leicht zu verstehen und darauf zuzugreifen.</t>
   </si>
   <si>
